--- a/hardware/bom/BOM.xlsx
+++ b/hardware/bom/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solidworks Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\sjtu\Lab\机械臂设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD3C4F6-246A-4AC3-95E5-6D47B388B95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB15AF-5A20-4C64-8443-5575CBB18289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE42FA77-44D0-4D9C-8500-3CA64DADCF61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EE42FA77-44D0-4D9C-8500-3CA64DADCF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
-  <si>
-    <t>所属子装配体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>JXS-02-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6061铝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JXS-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,18 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STEP2\3\4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,102 +124,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>树脂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深沟球轴承B6704ZZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外壳casing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外壳casing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达妙电机J4340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达妙电机J4310-2EC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达妙科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可&lt;1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源24V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M3弹垫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M3螺丝10mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M3螺母</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>304钢</t>
-  </si>
-  <si>
-    <t>304钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扎带3*200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>&lt;1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subassembly Belongings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>B6704ZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D printing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMIAOJ4340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMIAOJ4310-2EC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMIAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3screw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bearing Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6061 Aluminum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304 Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nylon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tie 3*200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power source 24V XT30 12A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2screw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5screw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JXS-07-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JXS-07-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JXS-07-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Clamping Jaw v3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamping Jaw v3 left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slider and Rail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price(USD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price(RMB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel Connection XT30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ball head pull rod M3 40mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.7A4Q9qckt7PgGVO?tk=txeAUKF5MX4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.7AGLF0jUZUDXJjp?tk=wZmaUKFiw6g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://e.tb.cn/h.7A4o7VFhj66tiTt?tk=ocFrUKFQPPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≈6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≈1</t>
+  </si>
+  <si>
+    <t>≈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.ia5ccovAxU8BVyT?tk=qlBiUKFNj23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≈7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3screw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≈3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≈0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≈6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://e.tb.cn/h.ia57VBTVB2qIsj3?tk=0bYBUKFFsLV</t>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.ia58a2TkJB2xWVG?tk=60x6UKFwrnU</t>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.7AuZkvmwAsdF7XE?tk=TiSiUKFtPge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.7Au3DzMf98FGadV?tk=uw8gUKFB4Qe</t>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.ia5PtiowQPkVhvE?tk=2lIBUKFAZoj</t>
+  </si>
+  <si>
+    <t>&lt;200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10084543367630.html?pcdk=dfrSIiW8gQks40RDMt_F4Vjnj95thVJ_nS_HTjt30oxpHF6whhXlnPbhAnTGZXQT.NnCI.sen1</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT30 2+2 Wire 20cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT30 2+2 Wire 20cm straight + bent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT30 2+2 Wire 30cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e.tb.cn/h.iZhQ6utcLtsRVfZ?tk=sKYsUKE1MLk </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +406,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -339,12 +488,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +507,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -366,12 +533,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,516 +851,879 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627890F3-BDA1-4024-8BAC-786C3342A14C}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>13.9</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.38</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>76</v>
+      </c>
+      <c r="F27" s="3">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2544</v>
+      </c>
+      <c r="F31" s="1">
+        <v>370</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2396</v>
+      </c>
+      <c r="F32" s="1">
+        <v>348</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="7">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>90</v>
+      </c>
+      <c r="F33" s="1">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>58</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1">
-        <v>2544</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="E35" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
         <v>42</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F37" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1">
+        <v>200</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="1">
-        <v>2396</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1">
+        <v>200</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1">
+        <v>200</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1">
+        <v>500</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1">
+        <v>50</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>90</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="7">
-        <v>200</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="7">
-        <v>200</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="7">
-        <v>50</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.89</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="D45" s="1">
         <v>100</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E45" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="F45" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E2:E20"/>
-    <mergeCell ref="E23:E24"/>
+  <mergeCells count="10">
     <mergeCell ref="C2:C20"/>
     <mergeCell ref="F2:F20"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="G2:G20"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E2:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G38" r:id="rId1" xr:uid="{52E09FC7-FE83-4747-A876-531D447D9805}"/>
+    <hyperlink ref="G27" r:id="rId2" xr:uid="{3C40C176-C8CE-4CCD-9457-927A5B1D9870}"/>
+    <hyperlink ref="G34" r:id="rId3" display="https://item.taobao.com/item.htm?id=996289044875&amp;mi_id=0000tOm4Kry5_eS9lOAizIW6kkQXyI5GfZ42MMc2jdLg98A&amp;skuId=5973666792008&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.43512e8de77rbq" xr:uid="{C93EDD43-B6E9-4C88-8706-21EBA813497D}"/>
+    <hyperlink ref="G39" r:id="rId4" xr:uid="{FE0769C8-3C38-4FD8-BE8A-AA1BF959EF8E}"/>
+    <hyperlink ref="G42" r:id="rId5" xr:uid="{4C31B1C5-C4B8-46C6-AFB6-48EF23B8BB5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>